--- a/data/output/FV2304_FV2210/INVOIC/31009.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31009.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3836" uniqueCount="330">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="330">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1164,6 +1164,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U189" totalsRowShown="0">
+  <autoFilter ref="A1:U189"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1453,7 +1483,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9965,5 +9998,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/INVOIC/31009.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31009.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="506">
   <si>
     <t>#</t>
   </si>
@@ -7097,48 +7097,46 @@
       <c r="V107" s="11"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5" t="s">
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K108" s="5"/>
-      <c r="L108" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M108" s="5" t="s">
+      <c r="K108" s="2"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="5" t="s">
+      <c r="N108" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O108" s="5" t="s">
+      <c r="O108" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-      <c r="U108" s="5" t="s">
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V108" s="5"/>
+      <c r="V108" s="2"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
@@ -7168,9 +7166,7 @@
         <v>269</v>
       </c>
       <c r="K109" s="5"/>
-      <c r="L109" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L109" s="4"/>
       <c r="M109" s="5" t="s">
         <v>38</v>
       </c>
@@ -7224,9 +7220,7 @@
       <c r="K110" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="L110" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L110" s="4"/>
       <c r="M110" s="5" t="s">
         <v>38</v>
       </c>
@@ -7253,44 +7247,42 @@
       </c>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5" t="s">
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M111" s="5" t="s">
+      <c r="K111" s="2"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N111" s="5" t="s">
+      <c r="N111" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-      <c r="U111" s="5" t="s">
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V111" s="5"/>
+      <c r="V111" s="2"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="5" t="s">
@@ -7314,9 +7306,7 @@
         <v>268</v>
       </c>
       <c r="K112" s="5"/>
-      <c r="L112" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>39</v>
       </c>
@@ -7364,9 +7354,7 @@
         <v>269</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>39</v>
       </c>
@@ -7420,9 +7408,7 @@
         <v>269</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>39</v>
       </c>
@@ -7476,9 +7462,7 @@
         <v>269</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>39</v>
       </c>
@@ -7505,44 +7489,42 @@
       <c r="V115" s="5"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5" t="s">
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M116" s="5" t="s">
+      <c r="K116" s="2"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N116" s="5" t="s">
+      <c r="N116" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-      <c r="U116" s="5" t="s">
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V116" s="5"/>
+      <c r="V116" s="2"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="5" t="s">
@@ -7566,9 +7548,7 @@
         <v>268</v>
       </c>
       <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L117" s="4"/>
       <c r="M117" s="5" t="s">
         <v>40</v>
       </c>
@@ -7616,9 +7596,7 @@
         <v>269</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>40</v>
       </c>
@@ -7645,48 +7623,46 @@
       <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5" t="s">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M119" s="5" t="s">
+      <c r="K119" s="2"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N119" s="5" t="s">
+      <c r="N119" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O119" s="5" t="s">
+      <c r="O119" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-      <c r="U119" s="5" t="s">
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V119" s="5"/>
+      <c r="V119" s="2"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="5" t="s">
@@ -7716,9 +7692,7 @@
         <v>269</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>41</v>
       </c>
@@ -7828,9 +7802,7 @@
         <v>269</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>41</v>
       </c>
@@ -7857,44 +7829,42 @@
       <c r="V122" s="5"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5" t="s">
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M123" s="5" t="s">
+      <c r="K123" s="2"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N123" s="5" t="s">
+      <c r="N123" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O123" s="5"/>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V123" s="5"/>
+      <c r="V123" s="2"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="5" t="s">
@@ -7918,9 +7888,7 @@
         <v>268</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>42</v>
       </c>
@@ -7968,9 +7936,7 @@
       <c r="K125" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="L125" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>42</v>
       </c>
@@ -8024,9 +7990,7 @@
       <c r="K126" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="L126" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>42</v>
       </c>
@@ -8080,9 +8044,7 @@
         <v>269</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>42</v>
       </c>
@@ -8109,48 +8071,46 @@
       <c r="V127" s="5"/>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5" t="s">
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M128" s="5" t="s">
+      <c r="K128" s="2"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N128" s="5" t="s">
+      <c r="N128" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O128" s="5" t="s">
+      <c r="O128" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-      <c r="S128" s="5"/>
-      <c r="T128" s="5"/>
-      <c r="U128" s="5" t="s">
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V128" s="5"/>
+      <c r="V128" s="2"/>
     </row>
     <row r="129" spans="1:22">
       <c r="A129" s="5" t="s">
@@ -8180,9 +8140,7 @@
         <v>269</v>
       </c>
       <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="5" t="s">
         <v>43</v>
       </c>
@@ -8236,9 +8194,7 @@
       <c r="K130" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="L130" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>43</v>
       </c>
@@ -8325,50 +8281,48 @@
       </c>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5" t="s">
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K132" s="5" t="s">
+      <c r="K132" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="L132" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M132" s="5" t="s">
+      <c r="L132" s="4"/>
+      <c r="M132" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N132" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O132" s="5" t="s">
+      <c r="O132" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5" t="s">
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V132" s="5" t="s">
+      <c r="V132" s="2" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8400,9 +8354,7 @@
         <v>269</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>44</v>
       </c>
@@ -8456,9 +8408,7 @@
       <c r="K134" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="L134" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>44</v>
       </c>
@@ -8512,9 +8462,7 @@
         <v>269</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>44</v>
       </c>
@@ -8568,9 +8516,7 @@
         <v>269</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>44</v>
       </c>
@@ -8657,50 +8603,48 @@
       </c>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5" t="s">
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K138" s="5" t="s">
+      <c r="K138" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="L138" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M138" s="5" t="s">
+      <c r="L138" s="4"/>
+      <c r="M138" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N138" s="5" t="s">
+      <c r="N138" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O138" s="5" t="s">
+      <c r="O138" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P138" s="5"/>
-      <c r="Q138" s="5"/>
-      <c r="R138" s="5"/>
-      <c r="S138" s="5"/>
-      <c r="T138" s="5"/>
-      <c r="U138" s="5" t="s">
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V138" s="5" t="s">
+      <c r="V138" s="2" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8732,9 +8676,7 @@
         <v>269</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>45</v>
       </c>
@@ -8786,9 +8728,7 @@
         <v>271</v>
       </c>
       <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>45</v>
       </c>
@@ -8840,9 +8780,7 @@
         <v>269</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>45</v>
       </c>
@@ -8869,50 +8807,48 @@
       <c r="V141" s="5"/>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5" t="s">
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K142" s="5" t="s">
+      <c r="K142" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="L142" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M142" s="5" t="s">
+      <c r="L142" s="4"/>
+      <c r="M142" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N142" s="5" t="s">
+      <c r="N142" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O142" s="5" t="s">
+      <c r="O142" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5" t="s">
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V142" s="5" t="s">
+      <c r="V142" s="2" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8944,9 +8880,7 @@
         <v>269</v>
       </c>
       <c r="K143" s="5"/>
-      <c r="L143" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>46</v>
       </c>
@@ -8998,9 +8932,7 @@
         <v>271</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>46</v>
       </c>
@@ -9052,9 +8984,7 @@
         <v>269</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>46</v>
       </c>
@@ -9081,44 +9011,42 @@
       <c r="V145" s="5"/>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5" t="s">
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M146" s="5" t="s">
+      <c r="K146" s="2"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N146" s="5" t="s">
+      <c r="N146" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5" t="s">
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V146" s="5"/>
+      <c r="V146" s="2"/>
     </row>
     <row r="147" spans="1:22">
       <c r="A147" s="5" t="s">
@@ -9142,9 +9070,7 @@
         <v>268</v>
       </c>
       <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>47</v>
       </c>
@@ -9192,9 +9118,7 @@
         <v>269</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>47</v>
       </c>
@@ -9248,9 +9172,7 @@
       <c r="K149" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="L149" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>47</v>
       </c>
@@ -9277,44 +9199,42 @@
       </c>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5" t="s">
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M150" s="5" t="s">
+      <c r="K150" s="2"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N150" s="5" t="s">
+      <c r="N150" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5" t="s">
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V150" s="5"/>
+      <c r="V150" s="2"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="5" t="s">
@@ -9338,9 +9258,7 @@
         <v>268</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>48</v>
       </c>
@@ -9388,9 +9306,7 @@
         <v>269</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>48</v>
       </c>
@@ -9444,9 +9360,7 @@
       <c r="K153" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L153" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>48</v>
       </c>
@@ -9533,44 +9447,42 @@
       </c>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5" t="s">
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M155" s="5" t="s">
+      <c r="K155" s="2"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N155" s="5" t="s">
+      <c r="N155" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5" t="s">
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V155" s="5"/>
+      <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="5" t="s">
@@ -9594,9 +9506,7 @@
         <v>268</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>49</v>
       </c>
@@ -9644,9 +9554,7 @@
         <v>269</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>49</v>
       </c>
@@ -9700,9 +9608,7 @@
         <v>269</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>49</v>
       </c>
@@ -9756,9 +9662,7 @@
       <c r="K159" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L159" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>49</v>
       </c>
@@ -9812,9 +9716,7 @@
         <v>269</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>49</v>
       </c>
@@ -9868,9 +9770,7 @@
         <v>269</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>49</v>
       </c>
@@ -9924,9 +9824,7 @@
         <v>269</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>49</v>
       </c>
@@ -9953,44 +9851,42 @@
       <c r="V162" s="5"/>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5" t="s">
+      <c r="C163" s="2"/>
+      <c r="D163" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5" t="s">
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M163" s="5" t="s">
+      <c r="K163" s="2"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N163" s="5"/>
-      <c r="O163" s="5" t="s">
+      <c r="N163" s="2"/>
+      <c r="O163" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
-      <c r="U163" s="5" t="s">
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V163" s="5"/>
+      <c r="V163" s="2"/>
     </row>
     <row r="164" spans="1:22">
       <c r="A164" s="5" t="s">
@@ -10018,9 +9914,7 @@
         <v>269</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>50</v>
       </c>
@@ -10045,44 +9939,42 @@
       <c r="V164" s="5"/>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5" t="s">
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M165" s="5" t="s">
+      <c r="K165" s="2"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N165" s="5" t="s">
+      <c r="N165" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O165" s="5"/>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="5"/>
-      <c r="S165" s="5"/>
-      <c r="T165" s="5"/>
-      <c r="U165" s="5" t="s">
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V165" s="5"/>
+      <c r="V165" s="2"/>
     </row>
     <row r="166" spans="1:22">
       <c r="A166" s="5" t="s">
@@ -10106,9 +9998,7 @@
         <v>268</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>51</v>
       </c>
@@ -10156,9 +10046,7 @@
         <v>269</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>51</v>
       </c>
@@ -10212,9 +10100,7 @@
       <c r="K168" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="L168" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>51</v>
       </c>
@@ -10241,44 +10127,42 @@
       </c>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5" t="s">
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M169" s="5" t="s">
+      <c r="K169" s="2"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N169" s="5" t="s">
+      <c r="N169" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O169" s="5"/>
-      <c r="P169" s="5"/>
-      <c r="Q169" s="5"/>
-      <c r="R169" s="5"/>
-      <c r="S169" s="5"/>
-      <c r="T169" s="5"/>
-      <c r="U169" s="5" t="s">
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V169" s="5"/>
+      <c r="V169" s="2"/>
     </row>
     <row r="170" spans="1:22">
       <c r="A170" s="5" t="s">
@@ -10302,9 +10186,7 @@
         <v>268</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>52</v>
       </c>
@@ -10352,9 +10234,7 @@
         <v>269</v>
       </c>
       <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>52</v>
       </c>
@@ -10408,9 +10288,7 @@
       <c r="K172" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="L172" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>52</v>
       </c>
@@ -10437,44 +10315,42 @@
       </c>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5" t="s">
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M173" s="5" t="s">
+      <c r="K173" s="2"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N173" s="5" t="s">
+      <c r="N173" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O173" s="5"/>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
-      <c r="U173" s="5" t="s">
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V173" s="5"/>
+      <c r="V173" s="2"/>
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="5" t="s">
@@ -10498,9 +10374,7 @@
         <v>268</v>
       </c>
       <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>53</v>
       </c>
@@ -10548,9 +10422,7 @@
         <v>269</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>53</v>
       </c>
@@ -10604,9 +10476,7 @@
         <v>269</v>
       </c>
       <c r="K176" s="5"/>
-      <c r="L176" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>53</v>
       </c>
@@ -10660,9 +10530,7 @@
       <c r="K177" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L177" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>53</v>
       </c>
@@ -10716,9 +10584,7 @@
         <v>269</v>
       </c>
       <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>53</v>
       </c>
@@ -10772,9 +10638,7 @@
         <v>269</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>53</v>
       </c>
@@ -10828,9 +10692,7 @@
         <v>269</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>53</v>
       </c>
@@ -10857,48 +10719,46 @@
       <c r="V180" s="5"/>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5" t="s">
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M181" s="5" t="s">
+      <c r="K181" s="2"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N181" s="5" t="s">
+      <c r="N181" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O181" s="5" t="s">
+      <c r="O181" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P181" s="5"/>
-      <c r="Q181" s="5"/>
-      <c r="R181" s="5"/>
-      <c r="S181" s="5"/>
-      <c r="T181" s="5"/>
-      <c r="U181" s="5" t="s">
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V181" s="5"/>
+      <c r="V181" s="2"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="5" t="s">
@@ -10928,9 +10788,7 @@
         <v>269</v>
       </c>
       <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L182" s="4"/>
       <c r="M182" s="5" t="s">
         <v>54</v>
       </c>
@@ -10984,9 +10842,7 @@
       <c r="K183" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="L183" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>54</v>
       </c>
@@ -11013,48 +10869,46 @@
       </c>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5" t="s">
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M184" s="5" t="s">
+      <c r="K184" s="2"/>
+      <c r="L184" s="4"/>
+      <c r="M184" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N184" s="5" t="s">
+      <c r="N184" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O184" s="5" t="s">
+      <c r="O184" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P184" s="5"/>
-      <c r="Q184" s="5"/>
-      <c r="R184" s="5"/>
-      <c r="S184" s="5"/>
-      <c r="T184" s="5"/>
-      <c r="U184" s="5" t="s">
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V184" s="5"/>
+      <c r="V184" s="2"/>
     </row>
     <row r="185" spans="1:22">
       <c r="A185" s="5" t="s">
@@ -11084,9 +10938,7 @@
         <v>269</v>
       </c>
       <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>55</v>
       </c>
@@ -11140,9 +10992,7 @@
       <c r="K186" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="L186" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>55</v>
       </c>
@@ -11169,44 +11019,42 @@
       </c>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5" t="s">
+      <c r="C187" s="2"/>
+      <c r="D187" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5" t="s">
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M187" s="5" t="s">
+      <c r="K187" s="2"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N187" s="5"/>
-      <c r="O187" s="5" t="s">
+      <c r="N187" s="2"/>
+      <c r="O187" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P187" s="5"/>
-      <c r="Q187" s="5"/>
-      <c r="R187" s="5"/>
-      <c r="S187" s="5"/>
-      <c r="T187" s="5"/>
-      <c r="U187" s="5" t="s">
+      <c r="P187" s="2"/>
+      <c r="Q187" s="2"/>
+      <c r="R187" s="2"/>
+      <c r="S187" s="2"/>
+      <c r="T187" s="2"/>
+      <c r="U187" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V187" s="5"/>
+      <c r="V187" s="2"/>
     </row>
     <row r="188" spans="1:22">
       <c r="A188" s="5" t="s">
@@ -11232,9 +11080,7 @@
         <v>269</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>56</v>
       </c>

--- a/data/output/FV2304_FV2210/INVOIC/31009.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31009.xlsx
@@ -1676,7 +1676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1699,6 +1699,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1707,6 +1710,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2147,7 +2153,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2483,7 +2489,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2717,7 +2723,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2905,7 +2911,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3095,7 +3101,7 @@
         <v>293</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3283,7 +3289,7 @@
         <v>293</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3469,7 +3475,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3559,7 +3565,7 @@
         <v>294</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2"/>
@@ -3699,7 +3705,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3867,22 +3873,22 @@
       <c r="V38" s="5"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
         <v>268</v>
       </c>
       <c r="K39" s="6" t="s">
@@ -3891,19 +3897,19 @@
       <c r="L39" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5" t="s">
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2" t="s">
         <v>268</v>
       </c>
       <c r="V39" s="6" t="s">
@@ -4081,7 +4087,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4725,20 +4731,20 @@
       <c r="B56" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>317</v>
       </c>
       <c r="M56" s="5"/>
@@ -4756,25 +4762,25 @@
       <c r="A57" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>317</v>
       </c>
       <c r="M57" s="5"/>
@@ -4792,31 +4798,31 @@
       <c r="A58" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9" t="s">
+      <c r="J58" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10" t="s">
         <v>317</v>
       </c>
       <c r="M58" s="5"/>
@@ -4834,33 +4840,33 @@
       <c r="A59" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L59" s="10" t="s">
         <v>317</v>
       </c>
       <c r="M59" s="5"/>
@@ -4878,29 +4884,29 @@
       <c r="A60" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8" t="s">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="J60" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>317</v>
       </c>
       <c r="M60" s="5"/>
@@ -4928,25 +4934,25 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11" t="s">
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="V61" s="11"/>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4962,27 +4968,27 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11" t="s">
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="V62" s="11"/>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4998,33 +5004,33 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11" t="s">
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="V63" s="11"/>
+      <c r="U63" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -5040,33 +5046,33 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11" t="s">
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="U64" s="11" t="s">
+      <c r="U64" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="V64" s="11" t="s">
+      <c r="V64" s="13" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5084,31 +5090,31 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="U65" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="V65" s="11"/>
+      <c r="U65" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="2" t="s">
@@ -5131,7 +5137,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5317,7 +5323,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5677,7 +5683,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6321,22 +6327,22 @@
       <c r="B90" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8" t="s">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="K90" s="8" t="s">
+      <c r="K90" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="L90" s="9" t="s">
+      <c r="L90" s="10" t="s">
         <v>317</v>
       </c>
       <c r="M90" s="5"/>
@@ -6354,25 +6360,25 @@
       <c r="A91" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8" t="s">
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9" t="s">
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
         <v>317</v>
       </c>
       <c r="M91" s="5"/>
@@ -6390,31 +6396,31 @@
       <c r="A92" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8" t="s">
+      <c r="F92" s="9"/>
+      <c r="G92" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
+      <c r="H92" s="9"/>
+      <c r="I92" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J92" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="9" t="s">
+      <c r="J92" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10" t="s">
         <v>317</v>
       </c>
       <c r="M92" s="5"/>
@@ -6432,33 +6438,33 @@
       <c r="A93" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8" t="s">
+      <c r="F93" s="9"/>
+      <c r="G93" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8" t="s">
+      <c r="H93" s="9"/>
+      <c r="I93" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="J93" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="K93" s="8" t="s">
+      <c r="K93" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="L93" s="9" t="s">
+      <c r="L93" s="10" t="s">
         <v>317</v>
       </c>
       <c r="M93" s="5"/>
@@ -6476,29 +6482,29 @@
       <c r="A94" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8" t="s">
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J94" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9" t="s">
+      <c r="J94" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K94" s="9"/>
+      <c r="L94" s="10" t="s">
         <v>317</v>
       </c>
       <c r="M94" s="5"/>
@@ -6526,25 +6532,25 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="10" t="s">
+      <c r="L95" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M95" s="11" t="s">
+      <c r="M95" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="N95" s="11" t="s">
+      <c r="N95" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11"/>
-      <c r="U95" s="11" t="s">
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+      <c r="U95" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="V95" s="11" t="s">
+      <c r="V95" s="13" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6562,27 +6568,27 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="10" t="s">
+      <c r="L96" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M96" s="11" t="s">
+      <c r="M96" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="N96" s="11" t="s">
+      <c r="N96" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O96" s="11" t="s">
+      <c r="O96" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
-      <c r="U96" s="11" t="s">
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="V96" s="11"/>
+      <c r="V96" s="13"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -6598,33 +6604,33 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="10" t="s">
+      <c r="L97" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M97" s="11" t="s">
+      <c r="M97" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="N97" s="11" t="s">
+      <c r="N97" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O97" s="11" t="s">
+      <c r="O97" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P97" s="11" t="s">
+      <c r="P97" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11" t="s">
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11" t="s">
+      <c r="S97" s="13"/>
+      <c r="T97" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="U97" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="V97" s="11"/>
+      <c r="U97" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="V97" s="13"/>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="5" t="s">
@@ -6640,33 +6646,33 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="10" t="s">
+      <c r="L98" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M98" s="11" t="s">
+      <c r="M98" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="N98" s="11" t="s">
+      <c r="N98" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O98" s="11" t="s">
+      <c r="O98" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P98" s="11" t="s">
+      <c r="P98" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="11" t="s">
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11" t="s">
+      <c r="S98" s="13"/>
+      <c r="T98" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="U98" s="11" t="s">
+      <c r="U98" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="V98" s="11" t="s">
+      <c r="V98" s="13" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6684,31 +6690,31 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="10" t="s">
+      <c r="L99" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M99" s="11" t="s">
+      <c r="M99" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="N99" s="11" t="s">
+      <c r="N99" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O99" s="11" t="s">
+      <c r="O99" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P99" s="11" t="s">
+      <c r="P99" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11" t="s">
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="U99" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="V99" s="11"/>
+      <c r="U99" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="V99" s="13"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="2" t="s">
@@ -6731,7 +6737,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7070,31 +7076,31 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N107" s="11" t="s">
+      <c r="N107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O107" s="11" t="s">
+      <c r="O107" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="P107" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q107" s="11"/>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11" t="s">
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="U107" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="V107" s="11"/>
+      <c r="U107" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="V107" s="13"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="2" t="s">
@@ -7119,7 +7125,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7267,7 +7273,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7509,7 +7515,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7645,7 +7651,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7849,7 +7855,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8093,7 +8099,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8305,7 +8311,7 @@
         <v>308</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8627,7 +8633,7 @@
         <v>311</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8831,7 +8837,7 @@
         <v>311</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9031,7 +9037,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9219,7 +9225,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9467,7 +9473,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -9871,7 +9877,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N163" s="2"/>
@@ -9959,7 +9965,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10147,7 +10153,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -10335,7 +10341,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -10741,7 +10747,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -10891,7 +10897,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11039,7 +11045,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N187" s="2"/>
